--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_42_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_42_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.614253881502265, 6.173964666832099]</t>
+          <t>[5.613708816069163, 6.1745097322652]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.151455622349002, 0.4701476810665275]</t>
+          <t>[0.1514768413052101, 0.4701264621103194]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002911922548543</v>
+        <v>0.0002907218732173256</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002911922548543</v>
+        <v>0.0002907218732173256</v>
       </c>
       <c r="W2" t="n">
         <v>24.76724724724814</v>
